--- a/Data comparison.xlsx
+++ b/Data comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Tim University\3rd Year\Courses\ESSE 3670\Project 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Tim University\3rd Year\Courses\ESSE 3670\Project 3\ESSE3670project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D96E71D-A98F-46D4-B0FA-9658DA26BAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343AA441-02A2-48EC-8920-C79F09472E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{E48E7914-9423-48E8-ACC4-F26C452E78B7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E48E7914-9423-48E8-ACC4-F26C452E78B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="39" r:id="rId3"/>
-    <pivotCache cacheId="53" r:id="rId4"/>
-    <pivotCache cacheId="79" r:id="rId5"/>
-    <pivotCache cacheId="80" r:id="rId6"/>
-    <pivotCache cacheId="87" r:id="rId7"/>
-    <pivotCache cacheId="93" r:id="rId8"/>
-    <pivotCache cacheId="100" r:id="rId9"/>
-    <pivotCache cacheId="105" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -367,7 +367,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -811,34 +811,12 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -870,11 +848,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -905,7 +979,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -914,10 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -929,13 +1038,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -947,41 +1053,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15098,7 +15179,390 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636A34F0-EE95-4EB4-A1F8-0C93C877D4BB}" name="PivotTable20" cacheId="105" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A1B6FC0-C86C-41D9-BAC6-AF415900A6ED}" name="PivotTable17" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="K53:N64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Time to Reach 5cm Horizontal Error" fld="1" subtotal="count" baseField="1" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79D5AF3-624A-4DFF-9E01-F1A4A21F301E}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="F67:I78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Vertical RMSE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{039AA889-EEB7-4FDD-BD3B-D37D7A442022}" name="PivotTable13" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A67:D78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Vertical RMSE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{636A34F0-EE95-4EB4-A1F8-0C93C877D4BB}" name="PivotTable20" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="P67:S78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -15239,8 +15703,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5DEDB60-7C0C-47CF-A9E9-87B23AEAB482}" name="PivotTable19" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5DEDB60-7C0C-47CF-A9E9-87B23AEAB482}" name="PivotTable19" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="K67:N78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -15381,8 +15845,128 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6211C9BB-3EB1-419E-A0D1-C3EF408E48C8}" name="PivotTable18" cacheId="93" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAFDCC8A-7ABD-4EA3-9283-D375C46AE958}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="F53:I64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Horizontal RMSE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6211C9BB-3EB1-419E-A0D1-C3EF408E48C8}" name="PivotTable18" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="P53:S64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -15523,511 +16107,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2A1B6FC0-C86C-41D9-BAC6-AF415900A6ED}" name="PivotTable17" cacheId="87" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="K53:N64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Time to Reach 5cm Horizontal Error" fld="1" subtotal="count" baseField="1" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79D5AF3-624A-4DFF-9E01-F1A4A21F301E}" name="PivotTable16" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="F67:I78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Vertical RMSE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{039AA889-EEB7-4FDD-BD3B-D37D7A442022}" name="PivotTable13" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A67:D78" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Vertical RMSE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AAFDCC8A-7ABD-4EA3-9283-D375C46AE958}" name="PivotTable12" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="F53:I64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Horizontal RMSE" fld="1" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93E9CE37-2D7E-4C67-A5DF-DBC50CBFBAFF}" name="Horizontal RMSE Static vs Kinematic" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{93E9CE37-2D7E-4C67-A5DF-DBC50CBFBAFF}" name="Horizontal RMSE Static vs Kinematic" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A53:D64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -16443,10 +16524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632BC94F-6A70-416C-9B01-8B024FEEEF20}">
-  <dimension ref="A1:BC78"/>
+  <dimension ref="A1:BD78"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16474,79 +16555,80 @@
     <col min="22" max="22" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="48" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="38" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39" t="s">
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39" t="s">
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="40"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="30"/>
     </row>
-    <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="43" t="s">
         <v>35</v>
       </c>
       <c r="I2" t="s">
@@ -16606,10 +16688,10 @@
       <c r="AA2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AD2" s="7" t="s">
@@ -16618,34 +16700,35 @@
       <c r="AE2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="59" t="s">
+      <c r="AF2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="32"/>
-      <c r="AQ2" s="30" t="s">
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="54"/>
+      <c r="AR2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="32"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="54"/>
     </row>
-    <row r="3" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -16741,40 +16824,41 @@
       <c r="AF3" s="2">
         <v>0</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="35" t="s">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="35" t="s">
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="37"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="35" t="s">
+      <c r="AN3" s="57"/>
+      <c r="AO3" s="57"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="37"/>
-      <c r="AV3" s="35" t="s">
+      <c r="AT3" s="57"/>
+      <c r="AU3" s="57"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="37"/>
-      <c r="AZ3" s="3"/>
+      <c r="AX3" s="57"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="58"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="3"/>
       <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
     </row>
-    <row r="4" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -16870,48 +16954,49 @@
       <c r="AF4" s="1">
         <v>0</v>
       </c>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="38" t="s">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39" t="s">
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="41" t="s">
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42" t="s">
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="38" t="s">
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39" t="s">
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="41" t="s">
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42" t="s">
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="3"/>
+      <c r="AZ4" s="63"/>
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
     </row>
-    <row r="5" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -17007,68 +17092,69 @@
       <c r="AF5" s="1">
         <v>0</v>
       </c>
-      <c r="AG5" s="56" t="s">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AI5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AL5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AM5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AN5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AO5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AP5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="16" t="s">
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AR5" s="6" t="s">
+      <c r="AS5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AS5" s="7" t="s">
+      <c r="AT5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AT5" s="8" t="s">
+      <c r="AU5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="9" t="s">
+      <c r="AV5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AW5" s="7" t="s">
+      <c r="AX5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AX5" s="8" t="s">
+      <c r="AY5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AY5" s="9" t="s">
+      <c r="AZ5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="3"/>
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
       <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
@@ -17164,68 +17250,69 @@
       <c r="AF6" s="1">
         <v>0</v>
       </c>
-      <c r="AG6" s="49" t="s">
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AI6" s="13">
         <v>1.02715138388473E-2</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AJ6" s="2">
         <v>2.1071551857860301E-2</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AK6" s="2">
         <v>1.60443984577242E-2</v>
       </c>
-      <c r="AK6" s="14">
+      <c r="AL6" s="14">
         <v>0.139790082373804</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AM6" s="11">
         <v>1.0298937633091599E-2</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>2.3508767636129E-2</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AO6" s="2">
         <v>2.4839099182880801E-2</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AP6" s="14">
         <v>0.15703361625099099</v>
       </c>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="26" t="s">
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AR6" s="13">
+      <c r="AS6" s="13">
         <v>3.00888939438906E-2</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AT6" s="2">
         <v>3.8300774602430497E-2</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AU6" s="2">
         <v>2.9132170443066801E-2</v>
       </c>
-      <c r="AU6" s="14">
+      <c r="AV6" s="14">
         <v>0.15538876700710799</v>
       </c>
-      <c r="AV6" s="11">
+      <c r="AW6" s="11">
         <v>3.09220550722102E-2</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AX6" s="2">
         <v>3.8829408434963901E-2</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AY6" s="2">
         <v>2.8329503801185998E-2</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="AZ6" s="14">
         <v>0.15053496215359499</v>
       </c>
-      <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1">
@@ -17321,68 +17408,69 @@
       <c r="AF7" s="1">
         <v>0.45</v>
       </c>
-      <c r="AG7" s="50" t="s">
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AI7" s="5">
         <v>1.18581778287155E-2</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>1.7370581441759202E-2</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>2.10722419243469E-2</v>
       </c>
-      <c r="AK7" s="15">
+      <c r="AL7" s="15">
         <v>0.10915292811817801</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AM7" s="12">
         <v>2.0148211783350099E-2</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
         <v>5.9003009836645998E-2</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO7" s="1">
         <v>2.1954517324515099E-2</v>
       </c>
-      <c r="AO7" s="15">
+      <c r="AP7" s="15">
         <v>0.39749286292757502</v>
       </c>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="27" t="s">
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AS7" s="5">
         <v>1.8324724183152299E-2</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>2.6379897370787501E-2</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>1.89072491879104E-2</v>
       </c>
-      <c r="AU7" s="15">
+      <c r="AV7" s="15">
         <v>0.128303677699798</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AW7" s="12">
         <v>2.1129576967228898E-2</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AX7" s="1">
         <v>2.21802873531118E-2</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AY7" s="1">
         <v>2.37167267819718E-2</v>
       </c>
-      <c r="AY7" s="15">
+      <c r="AZ7" s="15">
         <v>7.6853860982118299E-2</v>
       </c>
-      <c r="AZ7" s="3"/>
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1">
@@ -17478,68 +17566,69 @@
       <c r="AF8" s="1">
         <v>0.375</v>
       </c>
-      <c r="AG8" s="54" t="s">
+      <c r="AG8" s="65"/>
+      <c r="AH8" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AI8" s="5">
         <v>1.25846018233257E-2</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1">
         <v>2.08666621024177E-2</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>9.4047600110472099E-3</v>
       </c>
-      <c r="AK8" s="15">
+      <c r="AL8" s="15">
         <v>0.13334967992076499</v>
       </c>
-      <c r="AL8" s="12">
+      <c r="AM8" s="12">
         <v>1.3460572770356999E-2</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <v>1.6422903958667801E-2</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AO8" s="1">
         <v>6.96880940556854E-3</v>
       </c>
-      <c r="AO8" s="15">
+      <c r="AP8" s="15">
         <v>8.8189586040812201E-2</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="28" t="s">
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="AS8" s="5">
         <v>2.2525655104100799E-2</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AT8" s="1">
         <v>2.38910947851632E-2</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <v>2.4878991909401401E-2</v>
       </c>
-      <c r="AU8" s="15">
+      <c r="AV8" s="15">
         <v>4.04458545181791E-2</v>
       </c>
-      <c r="AV8" s="12">
+      <c r="AW8" s="12">
         <v>2.25045086373824E-2</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AX8" s="1">
         <v>2.6388152712231501E-2</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AY8" s="1">
         <v>2.3675619790002999E-2</v>
       </c>
-      <c r="AY8" s="15">
+      <c r="AZ8" s="15">
         <v>7.9616486258862307E-2</v>
       </c>
-      <c r="AZ8" s="3"/>
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1">
@@ -17635,68 +17724,69 @@
       <c r="AF9" s="1">
         <v>0.05</v>
       </c>
-      <c r="AG9" s="54" t="s">
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AI9" s="5">
         <v>1.39206959752098E-2</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>3.2520561808473798E-2</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>1.03368978308862E-2</v>
       </c>
-      <c r="AK9" s="15">
+      <c r="AL9" s="15">
         <v>0.209788440276716</v>
       </c>
-      <c r="AL9" s="12">
+      <c r="AM9" s="12">
         <v>1.40289807299603E-2</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <v>4.7490995518738401E-2</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <v>7.2099547425972599E-3</v>
       </c>
-      <c r="AO9" s="15">
+      <c r="AP9" s="15">
         <v>0.30286019895915001</v>
       </c>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="28" t="s">
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="AS9" s="5">
         <v>9.1074421501488902E-3</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AT9" s="1">
         <v>1.71707348756014E-2</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AU9" s="1">
         <v>9.04097507647845E-3</v>
       </c>
-      <c r="AU9" s="15">
+      <c r="AV9" s="15">
         <v>0.10299176760118101</v>
       </c>
-      <c r="AV9" s="12">
+      <c r="AW9" s="12">
         <v>9.5594035280603205E-3</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AX9" s="1">
         <v>3.9904613854674399E-2</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AY9" s="1">
         <v>8.2847866912093698E-3</v>
       </c>
-      <c r="AY9" s="15">
+      <c r="AZ9" s="15">
         <v>0.25932738215359602</v>
       </c>
-      <c r="AZ9" s="3"/>
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
       <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A10" s="66" t="s">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
@@ -17792,68 +17882,69 @@
       <c r="AF10" s="1">
         <v>0.19166666666666701</v>
       </c>
-      <c r="AG10" s="54" t="s">
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AI10" s="5">
         <v>0.103012001020044</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AJ10" s="1">
         <v>3.6712019416645598E-2</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <v>7.2000300050488394E-2</v>
       </c>
-      <c r="AK10" s="15">
+      <c r="AL10" s="15">
         <v>0.178634627425205</v>
       </c>
-      <c r="AL10" s="12">
+      <c r="AM10" s="12">
         <v>6.8741997650256195E-2</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <v>2.6905146736303499E-2</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AO10" s="1">
         <v>6.1710768258494898E-2</v>
       </c>
-      <c r="AO10" s="15">
+      <c r="AP10" s="15">
         <v>0.117792855965137</v>
       </c>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="28" t="s">
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AS10" s="5">
         <v>9.1823057458811197E-2</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AT10" s="1">
         <v>5.3977031123648302E-2</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AU10" s="1">
         <v>0.126094822298946</v>
       </c>
-      <c r="AU10" s="15">
+      <c r="AV10" s="15">
         <v>0.190621321787038</v>
       </c>
-      <c r="AV10" s="12">
+      <c r="AW10" s="12">
         <v>5.1406219066636102E-2</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AX10" s="1">
         <v>5.9624063544804803E-2</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AY10" s="1">
         <v>0.17085429568385699</v>
       </c>
-      <c r="AY10" s="15">
+      <c r="AZ10" s="15">
         <v>0.24329186092859501</v>
       </c>
-      <c r="AZ10" s="3"/>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
     </row>
-    <row r="11" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1">
@@ -17949,68 +18040,69 @@
       <c r="AF11" s="1">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AG11" s="57" t="s">
+      <c r="AG11" s="66"/>
+      <c r="AH11" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AH11" s="17">
+      <c r="AI11" s="17">
         <v>2.1732348367209098E-2</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AJ11" s="18">
         <v>3.2895827476128001E-2</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AK11" s="18">
         <v>7.27726387587775E-2</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AL11" s="19">
         <v>0.19126166667541</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AM11" s="24">
         <v>2.04754146286385E-2</v>
       </c>
-      <c r="AM11" s="18">
+      <c r="AN11" s="18">
         <v>3.5433203609969398E-2</v>
       </c>
-      <c r="AN11" s="18">
+      <c r="AO11" s="18">
         <v>6.4883457721877605E-2</v>
       </c>
-      <c r="AO11" s="19">
+      <c r="AP11" s="19">
         <v>0.22172747479371999</v>
       </c>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="29" t="s">
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AR11" s="17">
+      <c r="AS11" s="17">
         <v>2.8039118309185498E-2</v>
       </c>
-      <c r="AS11" s="18">
+      <c r="AT11" s="18">
         <v>4.2378304774283303E-2</v>
       </c>
-      <c r="AT11" s="18">
+      <c r="AU11" s="18">
         <v>3.5059155951352498E-2</v>
       </c>
-      <c r="AU11" s="19">
+      <c r="AV11" s="19">
         <v>0.19101888744887799</v>
       </c>
-      <c r="AV11" s="24">
+      <c r="AW11" s="24">
         <v>2.9600172906217099E-2</v>
       </c>
-      <c r="AW11" s="18">
+      <c r="AX11" s="18">
         <v>4.0094294865987097E-2</v>
       </c>
-      <c r="AX11" s="18">
+      <c r="AY11" s="18">
         <v>3.7619030987930797E-2</v>
       </c>
-      <c r="AY11" s="19">
+      <c r="AZ11" s="19">
         <v>0.14929524600242799</v>
       </c>
-      <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
       <c r="BB11" s="3"/>
       <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
     </row>
-    <row r="12" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1">
@@ -18106,84 +18198,85 @@
       <c r="AF12" s="1">
         <v>5.83333333333333E-2</v>
       </c>
-      <c r="AG12" s="58" t="s">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AH12" s="21">
-        <f>AVERAGE(AH6:AH11)</f>
+      <c r="AI12" s="21">
+        <f t="shared" ref="AI12:AP12" si="0">AVERAGE(AI6:AI11)</f>
         <v>2.8896556475558569E-2</v>
       </c>
-      <c r="AI12" s="22">
-        <f>AVERAGE(AI6:AI11)</f>
+      <c r="AJ12" s="22">
+        <f t="shared" si="0"/>
         <v>2.6906200683880766E-2</v>
       </c>
-      <c r="AJ12" s="22">
-        <f>AVERAGE(AJ6:AJ11)</f>
+      <c r="AK12" s="22">
+        <f t="shared" si="0"/>
         <v>3.3605206172211737E-2</v>
       </c>
-      <c r="AK12" s="23">
-        <f>AVERAGE(AK6:AK11)</f>
+      <c r="AL12" s="23">
+        <f t="shared" si="0"/>
         <v>0.16032957079834634</v>
       </c>
-      <c r="AL12" s="25">
-        <f>AVERAGE(AL6:AL11)</f>
+      <c r="AM12" s="25">
+        <f t="shared" si="0"/>
         <v>2.4525685865942282E-2</v>
       </c>
-      <c r="AM12" s="22">
-        <f>AVERAGE(AM6:AM11)</f>
+      <c r="AN12" s="22">
+        <f t="shared" si="0"/>
         <v>3.4794004549409015E-2</v>
       </c>
-      <c r="AN12" s="22">
-        <f>AVERAGE(AN6:AN11)</f>
+      <c r="AO12" s="22">
+        <f t="shared" si="0"/>
         <v>3.1261101105989036E-2</v>
       </c>
-      <c r="AO12" s="23">
-        <f>AVERAGE(AO6:AO11)</f>
+      <c r="AP12" s="23">
+        <f t="shared" si="0"/>
         <v>0.2141827658228975</v>
       </c>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="20" t="s">
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AR12" s="21">
-        <f>AVERAGE(AR6:AR11)</f>
+      <c r="AS12" s="21">
+        <f t="shared" ref="AS12:AZ12" si="1">AVERAGE(AS6:AS11)</f>
         <v>3.3318148524881547E-2</v>
       </c>
-      <c r="AS12" s="22">
-        <f>AVERAGE(AS6:AS11)</f>
+      <c r="AT12" s="22">
+        <f t="shared" si="1"/>
         <v>3.3682972921985702E-2</v>
       </c>
-      <c r="AT12" s="22">
-        <f>AVERAGE(AT6:AT11)</f>
+      <c r="AU12" s="22">
+        <f t="shared" si="1"/>
         <v>4.0518894144525926E-2</v>
       </c>
-      <c r="AU12" s="23">
-        <f>AVERAGE(AU6:AU11)</f>
+      <c r="AV12" s="23">
+        <f t="shared" si="1"/>
         <v>0.13479504601036368</v>
       </c>
-      <c r="AV12" s="25">
-        <f>AVERAGE(AV6:AV11)</f>
+      <c r="AW12" s="25">
+        <f t="shared" si="1"/>
         <v>2.7520322696289175E-2</v>
       </c>
-      <c r="AW12" s="22">
-        <f>AVERAGE(AW6:AW11)</f>
+      <c r="AX12" s="22">
+        <f t="shared" si="1"/>
         <v>3.783680346096225E-2</v>
       </c>
-      <c r="AX12" s="22">
-        <f>AVERAGE(AX6:AX11)</f>
+      <c r="AY12" s="22">
+        <f t="shared" si="1"/>
         <v>4.8746660622692999E-2</v>
       </c>
-      <c r="AY12" s="23">
-        <f>AVERAGE(AY6:AY11)</f>
+      <c r="AZ12" s="23">
+        <f t="shared" si="1"/>
         <v>0.15981996641319909</v>
       </c>
-      <c r="AZ12" s="3"/>
       <c r="BA12" s="3"/>
       <c r="BB12" s="3"/>
       <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="1">
@@ -18279,60 +18372,61 @@
       <c r="AF13" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="AG13" s="47" t="s">
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="AH13" s="45">
-        <f>AVERAGE(AH12:AI12)</f>
+      <c r="AI13" s="53">
+        <f>AVERAGE(AI12:AJ12)</f>
         <v>2.7901378579719666E-2</v>
       </c>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45">
-        <f>AVERAGE(AJ12:AK12)</f>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53">
+        <f>AVERAGE(AK12:AL12)</f>
         <v>9.6967388485279041E-2</v>
       </c>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45">
-        <f>AVERAGE(AL12:AM12)</f>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53">
+        <f>AVERAGE(AM12:AN12)</f>
         <v>2.9659845207675648E-2</v>
       </c>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45">
-        <f>AVERAGE(AN12:AO12)</f>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53">
+        <f>AVERAGE(AO12:AP12)</f>
         <v>0.12272193346444327</v>
       </c>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="46" t="s">
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="AR13" s="45">
-        <f>AVERAGE(AR12:AS12)</f>
+      <c r="AS13" s="52">
+        <f>AVERAGE(AS12:AT12)</f>
         <v>3.3500560723433624E-2</v>
       </c>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45">
-        <f>AVERAGE(AT12:AU12)</f>
+      <c r="AT13" s="52"/>
+      <c r="AU13" s="52">
+        <f>AVERAGE(AU12:AV12)</f>
         <v>8.7656970077444801E-2</v>
       </c>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45">
-        <f>AVERAGE(AV12:AW12)</f>
+      <c r="AV13" s="52"/>
+      <c r="AW13" s="52">
+        <f>AVERAGE(AW12:AX12)</f>
         <v>3.2678563078625711E-2</v>
       </c>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45">
-        <f>AVERAGE(AX12:AY12)</f>
+      <c r="AX13" s="52"/>
+      <c r="AY13" s="52">
+        <f>AVERAGE(AY12:AZ12)</f>
         <v>0.10428331351794605</v>
       </c>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="3"/>
+      <c r="AZ13" s="52"/>
       <c r="BA13" s="3"/>
       <c r="BB13" s="3"/>
       <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
@@ -18428,32 +18522,33 @@
       <c r="AF14" s="1">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="AG14" s="47"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
       <c r="AQ14" s="3"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="30"/>
+      <c r="AX14" s="30"/>
+      <c r="AY14" s="30"/>
+      <c r="AZ14" s="30"/>
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
       <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
     </row>
-    <row r="15" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
+    <row r="15" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1">
@@ -18572,9 +18667,10 @@
       <c r="BA15" s="3"/>
       <c r="BB15" s="3"/>
       <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
     </row>
-    <row r="16" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="1">
@@ -18670,35 +18766,36 @@
       <c r="AF16" s="1">
         <v>0</v>
       </c>
-      <c r="AG16" s="31" t="s">
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="32"/>
-      <c r="AQ16" s="30" t="s">
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="53"/>
+      <c r="AM16" s="53"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="54"/>
+      <c r="AR16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="32"/>
-      <c r="AZ16" s="3"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
+      <c r="AZ16" s="54"/>
       <c r="BA16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1">
@@ -18794,40 +18891,41 @@
       <c r="AF17" s="1">
         <v>0</v>
       </c>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="35" t="s">
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="35" t="s">
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="35" t="s">
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="59"/>
+      <c r="AS17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="35" t="s">
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="3"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
+      <c r="AZ17" s="58"/>
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
       <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
     </row>
-    <row r="18" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+    <row r="18" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1">
@@ -18923,48 +19021,49 @@
       <c r="AF18" s="1">
         <v>0</v>
       </c>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="38" t="s">
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39" t="s">
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="41" t="s">
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42" t="s">
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AO18" s="43"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="34"/>
-      <c r="AR18" s="38" t="s">
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39" t="s">
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AU18" s="40"/>
-      <c r="AV18" s="41" t="s">
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42" t="s">
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AY18" s="43"/>
-      <c r="AZ18" s="3"/>
+      <c r="AZ18" s="63"/>
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
     </row>
-    <row r="19" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="66" t="s">
+    <row r="19" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1">
@@ -19060,68 +19159,69 @@
       <c r="AF19" s="1">
         <v>0.49166666666666697</v>
       </c>
-      <c r="AG19" s="56" t="s">
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AI19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AI19" s="7" t="s">
+      <c r="AJ19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AJ19" s="8" t="s">
+      <c r="AK19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AK19" s="9" t="s">
+      <c r="AL19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AL19" s="10" t="s">
+      <c r="AM19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AM19" s="7" t="s">
+      <c r="AN19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AN19" s="8" t="s">
+      <c r="AO19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AO19" s="9" t="s">
+      <c r="AP19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="16" t="s">
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AR19" s="6" t="s">
+      <c r="AS19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AS19" s="7" t="s">
+      <c r="AT19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AT19" s="8" t="s">
+      <c r="AU19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AU19" s="9" t="s">
+      <c r="AV19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AV19" s="10" t="s">
+      <c r="AW19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AW19" s="7" t="s">
+      <c r="AX19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AX19" s="8" t="s">
+      <c r="AY19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="AY19" s="9" t="s">
+      <c r="AZ19" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AZ19" s="3"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1">
@@ -19217,68 +19317,69 @@
       <c r="AF20" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AG20" s="49" t="s">
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="AH20" s="13">
+      <c r="AI20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AJ20" s="2">
         <v>0.05</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AK20" s="2">
         <v>0</v>
       </c>
-      <c r="AK20" s="14">
+      <c r="AL20" s="14">
         <v>0.05</v>
       </c>
-      <c r="AL20" s="11">
+      <c r="AM20" s="11">
         <v>0</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AN20" s="2">
         <v>9.1666666666666702E-2</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AO20" s="2">
         <v>0</v>
       </c>
-      <c r="AO20" s="14">
+      <c r="AP20" s="14">
         <v>9.1666666666666702E-2</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="26" t="s">
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AR20" s="13">
+      <c r="AS20" s="13">
         <v>0</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AT20" s="2">
         <v>0.116666666666667</v>
       </c>
-      <c r="AT20" s="2">
+      <c r="AU20" s="2">
         <v>0</v>
       </c>
-      <c r="AU20" s="14">
+      <c r="AV20" s="14">
         <v>0.116666666666667</v>
       </c>
-      <c r="AV20" s="11">
+      <c r="AW20" s="11">
         <v>0</v>
       </c>
-      <c r="AW20" s="2">
+      <c r="AX20" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AX20" s="2">
+      <c r="AY20" s="2">
         <v>0</v>
       </c>
-      <c r="AY20" s="14">
+      <c r="AZ20" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AZ20" s="3"/>
       <c r="BA20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1">
@@ -19374,68 +19475,69 @@
       <c r="AF21" s="1">
         <v>9.1666666666666702E-2</v>
       </c>
-      <c r="AG21" s="50" t="s">
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AI21" s="5">
         <v>0</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AJ21" s="1">
         <v>0.19166666666666701</v>
       </c>
-      <c r="AJ21" s="1">
+      <c r="AK21" s="1">
         <v>0</v>
       </c>
-      <c r="AK21" s="15">
+      <c r="AL21" s="15">
         <v>0.19166666666666701</v>
       </c>
-      <c r="AL21" s="12">
+      <c r="AM21" s="12">
         <v>0</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AN21" s="1">
         <v>0.16666666666666699</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <v>0</v>
       </c>
-      <c r="AO21" s="15">
+      <c r="AP21" s="15">
         <v>0.16666666666666699</v>
       </c>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="27" t="s">
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AS21" s="5">
         <v>0</v>
       </c>
-      <c r="AS21" s="1">
+      <c r="AT21" s="1">
         <v>0.1</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AU21" s="1">
         <v>0</v>
       </c>
-      <c r="AU21" s="15">
+      <c r="AV21" s="15">
         <v>0.1</v>
       </c>
-      <c r="AV21" s="12">
+      <c r="AW21" s="12">
         <v>0</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AX21" s="1">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AY21" s="1">
         <v>0</v>
       </c>
-      <c r="AY21" s="15">
+      <c r="AZ21" s="15">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1">
@@ -19531,68 +19633,69 @@
       <c r="AF22" s="1">
         <v>0.16666666666666699</v>
       </c>
-      <c r="AG22" s="54" t="s">
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AI22" s="5">
         <v>0</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AJ22" s="1">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AJ22" s="1">
+      <c r="AK22" s="1">
         <v>0</v>
       </c>
-      <c r="AK22" s="15">
+      <c r="AL22" s="15">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AL22" s="12">
+      <c r="AM22" s="12">
         <v>0</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AN22" s="1">
         <v>0.141666666666667</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AO22" s="1">
         <v>0</v>
       </c>
-      <c r="AO22" s="15">
+      <c r="AP22" s="15">
         <v>0.141666666666667</v>
       </c>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="28" t="s">
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AS22" s="5">
         <v>0</v>
       </c>
-      <c r="AS22" s="1">
+      <c r="AT22" s="1">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AU22" s="1">
         <v>0</v>
       </c>
-      <c r="AU22" s="15">
+      <c r="AV22" s="15">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="AV22" s="12">
+      <c r="AW22" s="12">
         <v>0</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AX22" s="1">
         <v>9.1666666666666702E-2</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AY22" s="1">
         <v>0</v>
       </c>
-      <c r="AY22" s="15">
+      <c r="AZ22" s="15">
         <v>9.1666666666666702E-2</v>
       </c>
-      <c r="AZ22" s="3"/>
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A23" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="1">
@@ -19688,68 +19791,69 @@
       <c r="AF23" s="1">
         <v>0.141666666666667</v>
       </c>
-      <c r="AG23" s="54" t="s">
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AI23" s="5">
         <v>0</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AJ23" s="1">
         <v>5.83333333333333E-2</v>
       </c>
-      <c r="AJ23" s="1">
+      <c r="AK23" s="1">
         <v>0</v>
       </c>
-      <c r="AK23" s="15">
+      <c r="AL23" s="15">
         <v>5.83333333333333E-2</v>
       </c>
-      <c r="AL23" s="12">
+      <c r="AM23" s="12">
         <v>0</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AN23" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AO23" s="1">
         <v>0</v>
       </c>
-      <c r="AO23" s="15">
+      <c r="AP23" s="15">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="28" t="s">
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR23" s="5">
+      <c r="AS23" s="5">
         <v>0</v>
       </c>
-      <c r="AS23" s="1">
+      <c r="AT23" s="1">
         <v>0.108333333333333</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AU23" s="1">
         <v>0</v>
       </c>
-      <c r="AU23" s="15">
+      <c r="AV23" s="15">
         <v>0.108333333333333</v>
       </c>
-      <c r="AV23" s="12">
+      <c r="AW23" s="12">
         <v>0</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AX23" s="1">
         <v>0.3</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AY23" s="1">
         <v>0</v>
       </c>
-      <c r="AY23" s="15">
+      <c r="AZ23" s="15">
         <v>0.3</v>
       </c>
-      <c r="AZ23" s="3"/>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="1">
@@ -19845,68 +19949,69 @@
       <c r="AF24" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AG24" s="54" t="s">
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AI24" s="5">
         <v>23.524999999999999</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AJ24" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="AJ24" s="1">
+      <c r="AK24" s="1">
         <v>0.45</v>
       </c>
-      <c r="AK24" s="15">
+      <c r="AL24" s="15">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="AL24" s="12">
+      <c r="AM24" s="12">
         <v>23.991666666666699</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AN24" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AO24" s="1">
         <v>0.49166666666666697</v>
       </c>
-      <c r="AO24" s="15">
+      <c r="AP24" s="15">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="28" t="s">
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AS24" s="5">
         <v>22.641666666666701</v>
       </c>
-      <c r="AS24" s="1">
+      <c r="AT24" s="1">
         <v>0.30833333333333302</v>
       </c>
-      <c r="AT24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AU24" s="15">
+      <c r="AV24" s="15">
         <v>0.31666666666666698</v>
       </c>
-      <c r="AV24" s="12">
+      <c r="AW24" s="12">
         <v>23.991666666666699</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AX24" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AX24" s="1" t="s">
+      <c r="AY24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AY24" s="15">
+      <c r="AZ24" s="15">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AZ24" s="3"/>
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
     </row>
-    <row r="25" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="1">
@@ -20002,68 +20107,69 @@
       <c r="AF25" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AG25" s="57" t="s">
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AH25" s="17">
+      <c r="AI25" s="17">
         <v>0</v>
       </c>
-      <c r="AI25" s="18">
+      <c r="AJ25" s="18">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="AJ25" s="18">
+      <c r="AK25" s="18">
         <v>0.375</v>
       </c>
-      <c r="AK25" s="19">
+      <c r="AL25" s="19">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="AL25" s="24">
+      <c r="AM25" s="24">
         <v>0</v>
       </c>
-      <c r="AM25" s="18">
+      <c r="AN25" s="18">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="AN25" s="18">
+      <c r="AO25" s="18">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AO25" s="19">
+      <c r="AP25" s="19">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="29" t="s">
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AR25" s="17">
+      <c r="AS25" s="17">
         <v>0</v>
       </c>
-      <c r="AS25" s="18">
+      <c r="AT25" s="18">
         <v>0.6</v>
       </c>
-      <c r="AT25" s="18">
+      <c r="AU25" s="18">
         <v>0</v>
       </c>
-      <c r="AU25" s="19">
+      <c r="AV25" s="19">
         <v>0.49166666666666697</v>
       </c>
-      <c r="AV25" s="24">
+      <c r="AW25" s="24">
         <v>0</v>
       </c>
-      <c r="AW25" s="18">
+      <c r="AX25" s="18">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AX25" s="18">
+      <c r="AY25" s="18">
         <v>0</v>
       </c>
-      <c r="AY25" s="19">
+      <c r="AZ25" s="19">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AZ25" s="3"/>
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
     </row>
-    <row r="26" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="66" t="s">
+    <row r="26" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1">
@@ -20159,126 +20265,127 @@
       <c r="AF26" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="AG26" s="58" t="s">
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AH26" s="21">
-        <f>AVERAGE(AH20:AH25)</f>
+      <c r="AI26" s="21">
+        <f t="shared" ref="AI26:AP26" si="2">AVERAGE(AI20:AI25)</f>
         <v>3.9208333333333329</v>
       </c>
-      <c r="AI26" s="22">
-        <f>AVERAGE(AI20:AI25)</f>
+      <c r="AJ26" s="22">
+        <f t="shared" si="2"/>
         <v>7.0833333333333373E-2</v>
       </c>
-      <c r="AJ26" s="22">
-        <f>AVERAGE(AJ20:AJ25)</f>
+      <c r="AK26" s="22">
+        <f t="shared" si="2"/>
         <v>0.13749999999999998</v>
       </c>
-      <c r="AK26" s="23">
-        <f>AVERAGE(AK20:AK25)</f>
+      <c r="AL26" s="23">
+        <f t="shared" si="2"/>
         <v>7.0833333333333373E-2</v>
       </c>
-      <c r="AL26" s="25">
-        <f>AVERAGE(AL20:AL25)</f>
+      <c r="AM26" s="25">
+        <f t="shared" si="2"/>
         <v>3.9986111111111167</v>
       </c>
-      <c r="AM26" s="22">
-        <f>AVERAGE(AM20:AM25)</f>
+      <c r="AN26" s="22">
+        <f t="shared" si="2"/>
         <v>9.5833333333333479E-2</v>
       </c>
-      <c r="AN26" s="22">
-        <f>AVERAGE(AN20:AN25)</f>
+      <c r="AO26" s="22">
+        <f t="shared" si="2"/>
         <v>0.13611111111111115</v>
       </c>
-      <c r="AO26" s="23">
-        <f>AVERAGE(AO20:AO25)</f>
+      <c r="AP26" s="23">
+        <f t="shared" si="2"/>
         <v>9.5833333333333479E-2</v>
       </c>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="20" t="s">
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AR26" s="21">
-        <f>AVERAGE(AR20:AR25)</f>
+      <c r="AS26" s="21">
+        <f t="shared" ref="AS26:AZ26" si="3">AVERAGE(AS20:AS25)</f>
         <v>3.773611111111117</v>
       </c>
-      <c r="AS26" s="22">
-        <f>AVERAGE(AS20:AS25)</f>
+      <c r="AT26" s="22">
+        <f t="shared" si="3"/>
         <v>0.21111111111111103</v>
       </c>
-      <c r="AT26" s="22">
-        <f>AVERAGE(AT20:AT25)</f>
+      <c r="AU26" s="22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU26" s="23">
-        <f>AVERAGE(AU20:AU25)</f>
+      <c r="AV26" s="23">
+        <f t="shared" si="3"/>
         <v>0.19444444444444453</v>
       </c>
-      <c r="AV26" s="25">
-        <f>AVERAGE(AV20:AV25)</f>
+      <c r="AW26" s="25">
+        <f t="shared" si="3"/>
         <v>3.9986111111111167</v>
       </c>
-      <c r="AW26" s="22">
-        <f>AVERAGE(AW20:AW25)</f>
+      <c r="AX26" s="22">
+        <f t="shared" si="3"/>
         <v>0.14722222222222223</v>
       </c>
-      <c r="AX26" s="22">
-        <f>AVERAGE(AX20:AX25)</f>
+      <c r="AY26" s="22">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AY26" s="23">
-        <f>AVERAGE(AY20:AY25)</f>
+      <c r="AZ26" s="23">
+        <f t="shared" si="3"/>
         <v>0.14722222222222223</v>
       </c>
-      <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
       <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
     </row>
-    <row r="27" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="67" t="s">
+    <row r="27" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2">
         <v>3.00888939438906E-2</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2">
         <v>2.9132170443066801E-2</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>1.02715138388473E-2</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="14">
         <v>1.60443984577242E-2</v>
       </c>
-      <c r="I27" s="62" t="s">
+      <c r="I27" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="K27" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
-      <c r="M27" s="60" t="s">
+      <c r="M27" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="60" t="s">
+      <c r="O27" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P27" s="2">
@@ -20300,76 +20407,77 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="47" t="s">
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="45"/>
-      <c r="AK27" s="45"/>
-      <c r="AL27" s="45"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="45"/>
-      <c r="AY27" s="45"/>
-      <c r="AZ27" s="3"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
+      <c r="AM27" s="52"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
       <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
     </row>
-    <row r="28" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>1.8324724183152299E-2</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="1">
         <v>1.89072491879104E-2</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>1.18581778287155E-2</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H28" s="15">
         <v>2.10722419243469E-2</v>
       </c>
-      <c r="I28" s="62" t="s">
+      <c r="I28" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="60" t="s">
+      <c r="M28" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N28" s="1">
         <v>0</v>
       </c>
-      <c r="O28" s="60" t="s">
+      <c r="O28" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P28" s="1">
@@ -20393,8 +20501,8 @@
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="4"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
@@ -20411,51 +20519,52 @@
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
       <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
     </row>
-    <row r="29" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>2.2525655104100799E-2</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="1">
         <v>2.4878991909401401E-2</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="1">
         <v>1.25846018233257E-2</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H29" s="15">
         <v>9.4047600110472099E-3</v>
       </c>
-      <c r="I29" s="62" t="s">
+      <c r="I29" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
       </c>
-      <c r="K29" s="60" t="s">
+      <c r="K29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N29" s="1">
         <v>0</v>
       </c>
-      <c r="O29" s="60" t="s">
+      <c r="O29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P29" s="1">
@@ -20473,15 +20582,15 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="47" t="s">
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="4"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
       <c r="AP29" s="3"/>
@@ -20498,51 +20607,52 @@
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
       <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
     </row>
-    <row r="30" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>9.1074421501488902E-3</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="1">
         <v>9.04097507647845E-3</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>1.39206959752098E-2</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H30" s="15">
         <v>1.03368978308862E-2</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
-      <c r="K30" s="60" t="s">
+      <c r="K30" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="60" t="s">
+      <c r="M30" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
-      <c r="O30" s="60" t="s">
+      <c r="O30" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P30" s="1">
@@ -20560,110 +20670,111 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="54" t="s">
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AH30" s="5">
+      <c r="AI30" s="5">
         <v>0.103012001020044</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AJ30" s="1">
         <v>3.6712019416645598E-2</v>
       </c>
-      <c r="AJ30" s="1">
+      <c r="AK30" s="1">
         <v>7.2000300050488394E-2</v>
       </c>
-      <c r="AK30" s="15">
+      <c r="AL30" s="15">
         <v>0.178634627425205</v>
       </c>
-      <c r="AL30" s="12">
+      <c r="AM30" s="12">
         <v>6.8741997650256195E-2</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AN30" s="1">
         <v>2.6905146736303499E-2</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AO30" s="1">
         <v>6.1710768258494898E-2</v>
       </c>
-      <c r="AO30" s="15">
+      <c r="AP30" s="15">
         <v>0.117792855965137</v>
       </c>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="28" t="s">
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AR30" s="5">
+      <c r="AS30" s="5">
         <v>9.1823057458811197E-2</v>
       </c>
-      <c r="AS30" s="1">
+      <c r="AT30" s="1">
         <v>5.3977031123648302E-2</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AU30" s="1">
         <v>0.126094822298946</v>
       </c>
-      <c r="AU30" s="15">
+      <c r="AV30" s="15">
         <v>0.190621321787038</v>
       </c>
-      <c r="AV30" s="12">
+      <c r="AW30" s="12">
         <v>5.1406219066636102E-2</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="AX30" s="1">
         <v>5.9624063544804803E-2</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AY30" s="1">
         <v>0.17085429568385699</v>
       </c>
-      <c r="AY30" s="15">
+      <c r="AZ30" s="15">
         <v>0.24329186092859501</v>
       </c>
-      <c r="AZ30" s="3"/>
       <c r="BA30" s="3"/>
       <c r="BB30" s="3"/>
       <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
     </row>
-    <row r="31" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="67" t="s">
+    <row r="31" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>9.1823057458811197E-2</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1">
         <v>0.126094822298946</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>0.103012001020044</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H31" s="15">
         <v>7.2000300050488394E-2</v>
       </c>
-      <c r="I31" s="62" t="s">
+      <c r="I31" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J31" s="1">
         <v>23.524999999999999</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="K31" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L31" s="1">
         <v>0.45</v>
       </c>
-      <c r="M31" s="60" t="s">
+      <c r="M31" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N31" s="1">
         <v>23.524999999999999</v>
       </c>
-      <c r="O31" s="60" t="s">
+      <c r="O31" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P31" s="1">
@@ -20681,13 +20792,13 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="4"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="4"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
       <c r="AP31" s="3"/>
@@ -20704,51 +20815,52 @@
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
       <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
     </row>
-    <row r="32" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="67" t="s">
+    <row r="32" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>2.8039118309185498E-2</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>3.5059155951352498E-2</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="1">
         <v>2.1732348367209098E-2</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H32" s="15">
         <v>7.27726387587775E-2</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
       </c>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L32" s="1">
         <v>0.375</v>
       </c>
-      <c r="M32" s="60" t="s">
+      <c r="M32" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N32" s="1">
         <v>0</v>
       </c>
-      <c r="O32" s="60" t="s">
+      <c r="O32" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P32" s="1">
@@ -20764,15 +20876,15 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="47" t="s">
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="4"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
       <c r="AP32" s="3"/>
@@ -20789,51 +20901,52 @@
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
       <c r="BC32" s="3"/>
+      <c r="BD32" s="3"/>
     </row>
-    <row r="33" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>2.9132170443066801E-2</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="1">
         <v>0.15538876700710799</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1.60443984577242E-2</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="G33" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H33" s="15">
         <v>0.139790082373804</v>
       </c>
-      <c r="I33" s="62" t="s">
+      <c r="I33" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
       </c>
-      <c r="K33" s="60" t="s">
+      <c r="K33" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L33" s="1">
         <v>0.05</v>
       </c>
-      <c r="M33" s="60" t="s">
+      <c r="M33" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N33" s="1">
         <v>0</v>
       </c>
-      <c r="O33" s="60" t="s">
+      <c r="O33" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P33" s="1">
@@ -20849,110 +20962,111 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
-      <c r="AG33" s="54" t="s">
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="AH33" s="5">
+      <c r="AI33" s="5">
         <v>23.524999999999999</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AJ33" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="AJ33" s="1">
+      <c r="AK33" s="1">
         <v>0.45</v>
       </c>
-      <c r="AK33" s="15">
+      <c r="AL33" s="15">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="AL33" s="12">
+      <c r="AM33" s="12">
         <v>23.991666666666699</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AN33" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AO33" s="1">
         <v>0.49166666666666697</v>
       </c>
-      <c r="AO33" s="15">
+      <c r="AP33" s="15">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="28" t="s">
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AR33" s="5">
+      <c r="AS33" s="5">
         <v>22.641666666666701</v>
       </c>
-      <c r="AS33" s="1">
+      <c r="AT33" s="1">
         <v>0.30833333333333302</v>
       </c>
-      <c r="AT33" s="1" t="s">
+      <c r="AU33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AU33" s="15">
+      <c r="AV33" s="15">
         <v>0.31666666666666698</v>
       </c>
-      <c r="AV33" s="12">
+      <c r="AW33" s="12">
         <v>23.991666666666699</v>
       </c>
-      <c r="AW33" s="1">
+      <c r="AX33" s="1">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AX33" s="1" t="s">
+      <c r="AY33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AY33" s="15">
+      <c r="AZ33" s="15">
         <v>0.22500000000000001</v>
       </c>
-      <c r="AZ33" s="3"/>
       <c r="BA33" s="3"/>
       <c r="BB33" s="3"/>
       <c r="BC33" s="3"/>
+      <c r="BD33" s="3"/>
     </row>
-    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="67" t="s">
+    <row r="34" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>1.89072491879104E-2</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="1">
         <v>0.128303677699798</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="1">
         <v>2.10722419243469E-2</v>
       </c>
-      <c r="G34" s="60" t="s">
+      <c r="G34" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H34" s="15">
         <v>0.10915292811817801</v>
       </c>
-      <c r="I34" s="62" t="s">
+      <c r="I34" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="60" t="s">
+      <c r="K34" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L34" s="1">
         <v>0.19166666666666701</v>
       </c>
-      <c r="M34" s="60" t="s">
+      <c r="M34" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N34" s="1">
         <v>0</v>
       </c>
-      <c r="O34" s="60" t="s">
+      <c r="O34" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P34" s="1">
@@ -20991,51 +21105,52 @@
       <c r="BA34" s="3"/>
       <c r="BB34" s="3"/>
       <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
     </row>
-    <row r="35" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="67" t="s">
+    <row r="35" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>2.4878991909401401E-2</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="1">
         <v>4.04458545181791E-2</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>9.4047600110472099E-3</v>
       </c>
-      <c r="G35" s="60" t="s">
+      <c r="G35" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H35" s="15">
         <v>0.13334967992076499</v>
       </c>
-      <c r="I35" s="62" t="s">
+      <c r="I35" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="60" t="s">
+      <c r="K35" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L35" s="1">
         <v>3.3333333333333298E-2</v>
       </c>
-      <c r="M35" s="60" t="s">
+      <c r="M35" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N35" s="1">
         <v>0</v>
       </c>
-      <c r="O35" s="60" t="s">
+      <c r="O35" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P35" s="1">
@@ -21051,10 +21166,10 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="47" t="s">
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
@@ -21076,51 +21191,52 @@
       <c r="BA35" s="3"/>
       <c r="BB35" s="3"/>
       <c r="BC35" s="3"/>
+      <c r="BD35" s="3"/>
     </row>
-    <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>9.04097507647845E-3</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="1">
         <v>0.10299176760118101</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="1">
         <v>1.03368978308862E-2</v>
       </c>
-      <c r="G36" s="60" t="s">
+      <c r="G36" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H36" s="15">
         <v>0.209788440276716</v>
       </c>
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="60" t="s">
+      <c r="K36" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L36" s="1">
         <v>5.83333333333333E-2</v>
       </c>
-      <c r="M36" s="60" t="s">
+      <c r="M36" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N36" s="1">
         <v>0</v>
       </c>
-      <c r="O36" s="60" t="s">
+      <c r="O36" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P36" s="1">
@@ -21159,51 +21275,52 @@
       <c r="BA36" s="3"/>
       <c r="BB36" s="3"/>
       <c r="BC36" s="3"/>
+      <c r="BD36" s="3"/>
     </row>
-    <row r="37" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="67" t="s">
+    <row r="37" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>0.126094822298946</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="1">
         <v>0.190621321787038</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="1">
         <v>7.2000300050488394E-2</v>
       </c>
-      <c r="G37" s="60" t="s">
+      <c r="G37" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H37" s="15">
         <v>0.178634627425205</v>
       </c>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="1">
         <v>0.45</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L37" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N37" s="1">
         <v>0.45</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P37" s="1">
@@ -21242,51 +21359,52 @@
       <c r="BA37" s="3"/>
       <c r="BB37" s="3"/>
       <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
     </row>
-    <row r="38" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>3.5059155951352498E-2</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="1">
         <v>0.19101888744887799</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>7.27726387587775E-2</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="15">
         <v>0.19126166667541</v>
       </c>
-      <c r="I38" s="62" t="s">
+      <c r="I38" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J38" s="1">
         <v>0.375</v>
       </c>
-      <c r="K38" s="60" t="s">
+      <c r="K38" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L38" s="1">
         <v>8.3333333333333297E-3</v>
       </c>
-      <c r="M38" s="60" t="s">
+      <c r="M38" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N38" s="1">
         <v>0.375</v>
       </c>
-      <c r="O38" s="60" t="s">
+      <c r="O38" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P38" s="1">
@@ -21325,51 +21443,52 @@
       <c r="BA38" s="3"/>
       <c r="BB38" s="3"/>
       <c r="BC38" s="3"/>
+      <c r="BD38" s="3"/>
     </row>
-    <row r="39" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="67" t="s">
+    <row r="39" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>3.09220550722102E-2</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>3.8829408434963901E-2</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>1.0298937633091599E-2</v>
       </c>
-      <c r="G39" s="60" t="s">
+      <c r="G39" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H39" s="15">
         <v>2.4839099182880801E-2</v>
       </c>
-      <c r="I39" s="62" t="s">
+      <c r="I39" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="60" t="s">
+      <c r="K39" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="60" t="s">
+      <c r="M39" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="1">
         <v>0</v>
       </c>
-      <c r="O39" s="60" t="s">
+      <c r="O39" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P39" s="1">
@@ -21408,51 +21527,52 @@
       <c r="BA39" s="3"/>
       <c r="BB39" s="3"/>
       <c r="BC39" s="3"/>
+      <c r="BD39" s="3"/>
     </row>
-    <row r="40" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>2.1129576967228898E-2</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="1">
         <v>2.21802873531118E-2</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="1">
         <v>2.0148211783350099E-2</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H40" s="15">
         <v>2.1954517324515099E-2</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="60" t="s">
+      <c r="K40" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="60" t="s">
+      <c r="M40" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
       </c>
-      <c r="O40" s="60" t="s">
+      <c r="O40" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P40" s="1">
@@ -21491,51 +21611,52 @@
       <c r="BA40" s="3"/>
       <c r="BB40" s="3"/>
       <c r="BC40" s="3"/>
+      <c r="BD40" s="3"/>
     </row>
-    <row r="41" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="67" t="s">
+    <row r="41" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>2.25045086373824E-2</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1">
         <v>2.6388152712231501E-2</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="1">
         <v>1.3460572770356999E-2</v>
       </c>
-      <c r="G41" s="60" t="s">
+      <c r="G41" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H41" s="15">
         <v>6.96880940556854E-3</v>
       </c>
-      <c r="I41" s="62" t="s">
+      <c r="I41" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="60" t="s">
+      <c r="K41" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="60" t="s">
+      <c r="M41" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N41" s="1">
         <v>0</v>
       </c>
-      <c r="O41" s="60" t="s">
+      <c r="O41" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P41" s="1">
@@ -21575,51 +21696,52 @@
       <c r="BA41" s="3"/>
       <c r="BB41" s="3"/>
       <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
     </row>
-    <row r="42" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="67" t="s">
+    <row r="42" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>9.5594035280603205E-3</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>3.9904613854674399E-2</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>1.40289807299603E-2</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="G42" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="15">
         <v>7.2099547425972599E-3</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="60" t="s">
+      <c r="K42" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
       </c>
-      <c r="M42" s="60" t="s">
+      <c r="M42" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N42" s="1">
         <v>0</v>
       </c>
-      <c r="O42" s="60" t="s">
+      <c r="O42" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P42" s="1">
@@ -21659,51 +21781,52 @@
       <c r="BA42" s="3"/>
       <c r="BB42" s="3"/>
       <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
     </row>
-    <row r="43" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="67" t="s">
+    <row r="43" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>5.1406219066636102E-2</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="1">
         <v>5.9624063544804803E-2</v>
       </c>
-      <c r="E43" s="60" t="s">
+      <c r="E43" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F43" s="1">
         <v>6.8741997650256195E-2</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H43" s="15">
         <v>6.1710768258494898E-2</v>
       </c>
-      <c r="I43" s="62" t="s">
+      <c r="I43" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J43" s="1">
         <v>23.991666666666699</v>
       </c>
-      <c r="K43" s="60" t="s">
+      <c r="K43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L43" s="1">
         <v>0.49166666666666697</v>
       </c>
-      <c r="M43" s="60" t="s">
+      <c r="M43" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N43" s="1">
         <v>23.991666666666699</v>
       </c>
-      <c r="O43" s="60" t="s">
+      <c r="O43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P43" s="1">
@@ -21743,51 +21866,52 @@
       <c r="BA43" s="3"/>
       <c r="BB43" s="3"/>
       <c r="BC43" s="3"/>
+      <c r="BD43" s="3"/>
     </row>
-    <row r="44" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="67" t="s">
+    <row r="44" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>2.9600172906217099E-2</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="1">
         <v>4.0094294865987097E-2</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="1">
         <v>2.04754146286385E-2</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H44" s="15">
         <v>6.4883457721877605E-2</v>
       </c>
-      <c r="I44" s="62" t="s">
+      <c r="I44" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J44" s="1">
         <v>0</v>
       </c>
-      <c r="K44" s="60" t="s">
+      <c r="K44" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L44" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="M44" s="60" t="s">
+      <c r="M44" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N44" s="1">
         <v>0</v>
       </c>
-      <c r="O44" s="60" t="s">
+      <c r="O44" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P44" s="1">
@@ -21827,51 +21951,52 @@
       <c r="BA44" s="3"/>
       <c r="BB44" s="3"/>
       <c r="BC44" s="3"/>
+      <c r="BD44" s="3"/>
     </row>
-    <row r="45" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="67" t="s">
+    <row r="45" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>2.8329503801185998E-2</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="1">
         <v>0.15053496215359499</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>2.4839099182880801E-2</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H45" s="15">
         <v>0.15703361625099099</v>
       </c>
-      <c r="I45" s="62" t="s">
+      <c r="I45" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J45" s="1">
         <v>0</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L45" s="1">
         <v>9.1666666666666702E-2</v>
       </c>
-      <c r="M45" s="60" t="s">
+      <c r="M45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
       </c>
-      <c r="O45" s="60" t="s">
+      <c r="O45" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P45" s="1">
@@ -21911,51 +22036,52 @@
       <c r="BA45" s="3"/>
       <c r="BB45" s="3"/>
       <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
     </row>
-    <row r="46" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="67" t="s">
+    <row r="46" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>2.37167267819718E-2</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="1">
         <v>7.6853860982118299E-2</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>2.1954517324515099E-2</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H46" s="15">
         <v>0.39749286292757502</v>
       </c>
-      <c r="I46" s="62" t="s">
+      <c r="I46" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J46" s="1">
         <v>0</v>
       </c>
-      <c r="K46" s="60" t="s">
+      <c r="K46" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L46" s="1">
         <v>0.16666666666666699</v>
       </c>
-      <c r="M46" s="60" t="s">
+      <c r="M46" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N46" s="1">
         <v>0</v>
       </c>
-      <c r="O46" s="60" t="s">
+      <c r="O46" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P46" s="1">
@@ -21995,51 +22121,52 @@
       <c r="BA46" s="3"/>
       <c r="BB46" s="3"/>
       <c r="BC46" s="3"/>
+      <c r="BD46" s="3"/>
     </row>
-    <row r="47" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="67" t="s">
+    <row r="47" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>2.3675619790002999E-2</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="1">
         <v>7.9616486258862307E-2</v>
       </c>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="1">
         <v>6.96880940556854E-3</v>
       </c>
-      <c r="G47" s="60" t="s">
+      <c r="G47" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H47" s="15">
         <v>8.8189586040812201E-2</v>
       </c>
-      <c r="I47" s="62" t="s">
+      <c r="I47" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J47" s="1">
         <v>0</v>
       </c>
-      <c r="K47" s="60" t="s">
+      <c r="K47" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L47" s="1">
         <v>0.141666666666667</v>
       </c>
-      <c r="M47" s="60" t="s">
+      <c r="M47" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N47" s="1">
         <v>0</v>
       </c>
-      <c r="O47" s="60" t="s">
+      <c r="O47" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P47" s="1">
@@ -22079,51 +22206,52 @@
       <c r="BA47" s="3"/>
       <c r="BB47" s="3"/>
       <c r="BC47" s="3"/>
+      <c r="BD47" s="3"/>
     </row>
-    <row r="48" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="67" t="s">
+    <row r="48" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>8.2847866912093698E-3</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="1">
         <v>0.25932738215359602</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>7.2099547425972599E-3</v>
       </c>
-      <c r="G48" s="60" t="s">
+      <c r="G48" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H48" s="15">
         <v>0.30286019895915001</v>
       </c>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J48" s="1">
         <v>0</v>
       </c>
-      <c r="K48" s="60" t="s">
+      <c r="K48" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L48" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="M48" s="60" t="s">
+      <c r="M48" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N48" s="1">
         <v>0</v>
       </c>
-      <c r="O48" s="60" t="s">
+      <c r="O48" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P48" s="1">
@@ -22163,51 +22291,52 @@
       <c r="BA48" s="3"/>
       <c r="BB48" s="3"/>
       <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
     </row>
-    <row r="49" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="67" t="s">
+    <row r="49" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>0.17085429568385699</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D49" s="1">
         <v>0.24329186092859501</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>6.1710768258494898E-2</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="38" t="s">
         <v>38</v>
       </c>
       <c r="H49" s="15">
         <v>0.117792855965137</v>
       </c>
-      <c r="I49" s="62" t="s">
+      <c r="I49" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>0.49166666666666697</v>
       </c>
-      <c r="K49" s="60" t="s">
+      <c r="K49" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L49" s="1">
         <v>6.6666666666666693E-2</v>
       </c>
-      <c r="M49" s="60" t="s">
+      <c r="M49" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N49" s="1">
         <v>0.49166666666666697</v>
       </c>
-      <c r="O49" s="60" t="s">
+      <c r="O49" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P49" s="1">
@@ -22247,51 +22376,52 @@
       <c r="BA49" s="3"/>
       <c r="BB49" s="3"/>
       <c r="BC49" s="3"/>
+      <c r="BD49" s="3"/>
     </row>
-    <row r="50" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="67" t="s">
+    <row r="50" spans="1:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B50" s="7">
         <v>3.7619030987930797E-2</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D50" s="7">
         <v>0.14929524600242799</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="38" t="s">
         <v>1</v>
       </c>
       <c r="F50" s="7">
         <v>6.4883457721877605E-2</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G50" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="37">
         <v>0.22172747479371999</v>
       </c>
-      <c r="I50" s="62" t="s">
+      <c r="I50" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J50" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="38" t="s">
         <v>38</v>
       </c>
       <c r="L50" s="1">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="M50" s="60" t="s">
+      <c r="M50" s="38" t="s">
         <v>1</v>
       </c>
       <c r="N50" s="1">
         <v>0.32500000000000001</v>
       </c>
-      <c r="O50" s="60" t="s">
+      <c r="O50" s="38" t="s">
         <v>38</v>
       </c>
       <c r="P50" s="1">
@@ -22331,8 +22461,9 @@
       <c r="BA50" s="3"/>
       <c r="BB50" s="3"/>
       <c r="BC50" s="3"/>
+      <c r="BD50" s="3"/>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -22377,15 +22508,16 @@
       <c r="BA51" s="3"/>
       <c r="BB51" s="3"/>
       <c r="BC51" s="3"/>
+      <c r="BD51" s="3"/>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A52" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F52" t="s">
         <v>58</v>
       </c>
-      <c r="K52" s="61" t="s">
+      <c r="K52" s="39" t="s">
         <v>94</v>
       </c>
       <c r="P52" t="s">
@@ -22422,30 +22554,31 @@
       <c r="BA52" s="3"/>
       <c r="BB52" s="3"/>
       <c r="BC52" s="3"/>
+      <c r="BD52" s="3"/>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A53" s="52" t="s">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="L53" s="52" t="s">
+      <c r="L53" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="P53" s="52" t="s">
+      <c r="P53" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="Q53" s="52" t="s">
+      <c r="Q53" s="34" t="s">
         <v>30</v>
       </c>
       <c r="Z53" s="3"/>
@@ -22478,9 +22611,10 @@
       <c r="BA53" s="3"/>
       <c r="BB53" s="3"/>
       <c r="BC53" s="3"/>
+      <c r="BD53" s="3"/>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A54" s="52" t="s">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A54" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B54" t="s">
@@ -22492,7 +22626,7 @@
       <c r="D54" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="34" t="s">
         <v>28</v>
       </c>
       <c r="G54" t="s">
@@ -22504,7 +22638,7 @@
       <c r="I54" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="52" t="s">
+      <c r="K54" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L54" t="s">
@@ -22516,7 +22650,7 @@
       <c r="N54" t="s">
         <v>29</v>
       </c>
-      <c r="P54" s="52" t="s">
+      <c r="P54" s="34" t="s">
         <v>28</v>
       </c>
       <c r="Q54" t="s">
@@ -22558,57 +22692,57 @@
       <c r="BA54" s="3"/>
       <c r="BB54" s="3"/>
       <c r="BC54" s="3"/>
+      <c r="BD54" s="3"/>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A55" s="53" t="s">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A55" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="33">
         <v>18</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="33">
         <v>5</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="33">
         <v>23</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G55" s="51">
+      <c r="G55" s="33">
         <v>15</v>
       </c>
-      <c r="H55" s="51">
+      <c r="H55" s="33">
         <v>6</v>
       </c>
-      <c r="I55" s="51">
+      <c r="I55" s="33">
         <v>21</v>
       </c>
-      <c r="K55" s="53" t="s">
+      <c r="K55" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="L55" s="51">
+      <c r="L55" s="33">
         <v>18</v>
       </c>
-      <c r="M55" s="51">
+      <c r="M55" s="33">
         <v>6</v>
       </c>
-      <c r="N55" s="51">
+      <c r="N55" s="33">
         <v>24</v>
       </c>
-      <c r="P55" s="53" t="s">
+      <c r="P55" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="Q55" s="51">
+      <c r="Q55" s="33">
         <v>15</v>
       </c>
-      <c r="R55" s="51">
+      <c r="R55" s="33">
         <v>13</v>
       </c>
-      <c r="S55" s="51">
+      <c r="S55" s="33">
         <v>28</v>
       </c>
-      <c r="AG55" s="3"/>
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
       <c r="AJ55" s="3"/>
@@ -22631,55 +22765,55 @@
       <c r="BA55" s="3"/>
       <c r="BB55" s="3"/>
       <c r="BC55" s="3"/>
+      <c r="BD55" s="3"/>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A56" s="53" t="s">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A56" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="33">
         <v>3</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="33">
         <v>8</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="33">
         <v>11</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="51">
+      <c r="G56" s="33">
         <v>7</v>
       </c>
-      <c r="H56" s="51">
+      <c r="H56" s="33">
         <v>5</v>
       </c>
-      <c r="I56" s="51">
+      <c r="I56" s="33">
         <v>12</v>
       </c>
-      <c r="K56" s="53" t="s">
+      <c r="K56" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51">
+      <c r="L56" s="33"/>
+      <c r="M56" s="33">
         <v>8</v>
       </c>
-      <c r="N56" s="51">
+      <c r="N56" s="33">
         <v>8</v>
       </c>
-      <c r="P56" s="53" t="s">
+      <c r="P56" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q56" s="51">
+      <c r="Q56" s="33">
         <v>4</v>
       </c>
-      <c r="R56" s="51">
+      <c r="R56" s="33">
         <v>4</v>
       </c>
-      <c r="S56" s="51">
+      <c r="S56" s="33">
         <v>8</v>
       </c>
-      <c r="AG56" s="3"/>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
       <c r="AJ56" s="3"/>
@@ -22702,53 +22836,53 @@
       <c r="BA56" s="3"/>
       <c r="BB56" s="3"/>
       <c r="BC56" s="3"/>
+      <c r="BD56" s="3"/>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A57" s="53" t="s">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A57" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33">
         <v>2</v>
       </c>
-      <c r="D57" s="51">
+      <c r="D57" s="33">
         <v>2</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="F57" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G57" s="51">
+      <c r="G57" s="33">
         <v>1</v>
       </c>
-      <c r="H57" s="51">
+      <c r="H57" s="33">
         <v>3</v>
       </c>
-      <c r="I57" s="51">
+      <c r="I57" s="33">
         <v>4</v>
       </c>
-      <c r="K57" s="53" t="s">
+      <c r="K57" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51">
+      <c r="L57" s="33"/>
+      <c r="M57" s="33">
         <v>4</v>
       </c>
-      <c r="N57" s="51">
+      <c r="N57" s="33">
         <v>4</v>
       </c>
-      <c r="P57" s="53" t="s">
+      <c r="P57" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="Q57" s="51">
+      <c r="Q57" s="33">
         <v>2</v>
       </c>
-      <c r="R57" s="51">
+      <c r="R57" s="33">
         <v>2</v>
       </c>
-      <c r="S57" s="51">
+      <c r="S57" s="33">
         <v>4</v>
       </c>
-      <c r="AG57" s="3"/>
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="3"/>
@@ -22771,55 +22905,55 @@
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
       <c r="BC57" s="3"/>
+      <c r="BD57" s="3"/>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A58" s="53" t="s">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="33">
         <v>1</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="33">
         <v>1</v>
       </c>
-      <c r="D58" s="51">
+      <c r="D58" s="33">
         <v>2</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G58" s="51">
+      <c r="G58" s="33">
         <v>1</v>
       </c>
-      <c r="H58" s="51">
+      <c r="H58" s="33">
         <v>1</v>
       </c>
-      <c r="I58" s="51">
+      <c r="I58" s="33">
         <v>2</v>
       </c>
-      <c r="K58" s="53" t="s">
+      <c r="K58" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="L58" s="51"/>
-      <c r="M58" s="51">
+      <c r="L58" s="33"/>
+      <c r="M58" s="33">
         <v>4</v>
       </c>
-      <c r="N58" s="51">
+      <c r="N58" s="33">
         <v>4</v>
       </c>
-      <c r="P58" s="53" t="s">
+      <c r="P58" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="Q58" s="51">
+      <c r="Q58" s="33">
         <v>1</v>
       </c>
-      <c r="R58" s="51">
+      <c r="R58" s="33">
         <v>1</v>
       </c>
-      <c r="S58" s="51">
+      <c r="S58" s="33">
         <v>2</v>
       </c>
-      <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
       <c r="AJ58" s="3"/>
@@ -22842,51 +22976,51 @@
       <c r="BA58" s="3"/>
       <c r="BB58" s="3"/>
       <c r="BC58" s="3"/>
+      <c r="BD58" s="3"/>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A59" s="53" t="s">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="51">
+      <c r="B59" s="33">
         <v>1</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="33">
         <v>1</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="33">
         <v>2</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="F59" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51">
+      <c r="G59" s="33"/>
+      <c r="H59" s="33">
         <v>2</v>
       </c>
-      <c r="I59" s="51">
+      <c r="I59" s="33">
         <v>2</v>
       </c>
-      <c r="K59" s="53" t="s">
+      <c r="K59" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="L59" s="51">
+      <c r="L59" s="33">
         <v>2</v>
       </c>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51">
+      <c r="M59" s="33"/>
+      <c r="N59" s="33">
         <v>2</v>
       </c>
-      <c r="P59" s="53" t="s">
+      <c r="P59" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51">
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33">
         <v>1</v>
       </c>
-      <c r="S59" s="51">
+      <c r="S59" s="33">
         <v>1</v>
       </c>
-      <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
       <c r="AJ59" s="3"/>
@@ -22909,49 +23043,49 @@
       <c r="BA59" s="3"/>
       <c r="BB59" s="3"/>
       <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A60" s="53" t="s">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A60" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51">
+      <c r="B60" s="33"/>
+      <c r="C60" s="33">
         <v>3</v>
       </c>
-      <c r="D60" s="51">
+      <c r="D60" s="33">
         <v>3</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51">
+      <c r="G60" s="33"/>
+      <c r="H60" s="33">
         <v>3</v>
       </c>
-      <c r="I60" s="51">
+      <c r="I60" s="33">
         <v>3</v>
       </c>
-      <c r="K60" s="53" t="s">
+      <c r="K60" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="L60" s="51">
+      <c r="L60" s="33">
         <v>1</v>
       </c>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51">
+      <c r="M60" s="33"/>
+      <c r="N60" s="33">
         <v>1</v>
       </c>
-      <c r="P60" s="53" t="s">
+      <c r="P60" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51">
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33">
         <v>1</v>
       </c>
-      <c r="S60" s="51">
+      <c r="S60" s="33">
         <v>1</v>
       </c>
-      <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
       <c r="AJ60" s="3"/>
@@ -22974,51 +23108,51 @@
       <c r="BA60" s="3"/>
       <c r="BB60" s="3"/>
       <c r="BC60" s="3"/>
+      <c r="BD60" s="3"/>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A61" s="53" t="s">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="51">
+      <c r="B61" s="33">
         <v>1</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33">
         <v>1</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51">
+      <c r="G61" s="33"/>
+      <c r="H61" s="33">
         <v>2</v>
       </c>
-      <c r="I61" s="51">
+      <c r="I61" s="33">
         <v>2</v>
       </c>
-      <c r="K61" s="53" t="s">
+      <c r="K61" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="L61" s="51">
+      <c r="L61" s="33">
         <v>1</v>
       </c>
-      <c r="M61" s="51">
+      <c r="M61" s="33">
         <v>1</v>
       </c>
-      <c r="N61" s="51">
+      <c r="N61" s="33">
         <v>2</v>
       </c>
-      <c r="P61" s="53" t="s">
+      <c r="P61" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="Q61" s="51"/>
-      <c r="R61" s="51">
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33">
         <v>1</v>
       </c>
-      <c r="S61" s="51">
+      <c r="S61" s="33">
         <v>1</v>
       </c>
-      <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="3"/>
@@ -23041,49 +23175,49 @@
       <c r="BA61" s="3"/>
       <c r="BB61" s="3"/>
       <c r="BC61" s="3"/>
+      <c r="BD61" s="3"/>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A62" s="53" t="s">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A62" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33">
         <v>2</v>
       </c>
-      <c r="D62" s="51">
+      <c r="D62" s="33">
         <v>2</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="51"/>
-      <c r="H62" s="51">
+      <c r="G62" s="33"/>
+      <c r="H62" s="33">
         <v>1</v>
       </c>
-      <c r="I62" s="51">
+      <c r="I62" s="33">
         <v>1</v>
       </c>
-      <c r="K62" s="53" t="s">
+      <c r="K62" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51">
+      <c r="L62" s="33"/>
+      <c r="M62" s="33">
         <v>1</v>
       </c>
-      <c r="N62" s="51">
+      <c r="N62" s="33">
         <v>1</v>
       </c>
-      <c r="P62" s="53" t="s">
+      <c r="P62" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="Q62" s="51"/>
-      <c r="R62" s="51">
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33">
         <v>1</v>
       </c>
-      <c r="S62" s="51">
+      <c r="S62" s="33">
         <v>1</v>
       </c>
-      <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
       <c r="AJ62" s="3"/>
@@ -23106,49 +23240,49 @@
       <c r="BA62" s="3"/>
       <c r="BB62" s="3"/>
       <c r="BC62" s="3"/>
+      <c r="BD62" s="3"/>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A63" s="53" t="s">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="51">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33">
         <v>2</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="33">
         <v>2</v>
       </c>
-      <c r="F63" s="53" t="s">
+      <c r="F63" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="51"/>
-      <c r="H63" s="51">
+      <c r="G63" s="33"/>
+      <c r="H63" s="33">
         <v>1</v>
       </c>
-      <c r="I63" s="51">
+      <c r="I63" s="33">
         <v>1</v>
       </c>
-      <c r="K63" s="53" t="s">
+      <c r="K63" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="L63" s="51">
+      <c r="L63" s="33">
         <v>2</v>
       </c>
-      <c r="M63" s="51"/>
-      <c r="N63" s="51">
+      <c r="M63" s="33"/>
+      <c r="N63" s="33">
         <v>2</v>
       </c>
-      <c r="P63" s="53" t="s">
+      <c r="P63" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="Q63" s="51">
+      <c r="Q63" s="33">
         <v>2</v>
       </c>
-      <c r="R63" s="51"/>
-      <c r="S63" s="51">
+      <c r="R63" s="33"/>
+      <c r="S63" s="33">
         <v>2</v>
       </c>
-      <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
       <c r="AJ63" s="3"/>
@@ -23171,57 +23305,57 @@
       <c r="BA63" s="3"/>
       <c r="BB63" s="3"/>
       <c r="BC63" s="3"/>
+      <c r="BD63" s="3"/>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A64" s="53" t="s">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A64" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="51">
+      <c r="B64" s="33">
         <v>24</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="33">
         <v>24</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="33">
         <v>48</v>
       </c>
-      <c r="F64" s="53" t="s">
+      <c r="F64" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="51">
+      <c r="G64" s="33">
         <v>24</v>
       </c>
-      <c r="H64" s="51">
+      <c r="H64" s="33">
         <v>24</v>
       </c>
-      <c r="I64" s="51">
+      <c r="I64" s="33">
         <v>48</v>
       </c>
-      <c r="K64" s="53" t="s">
+      <c r="K64" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L64" s="51">
+      <c r="L64" s="33">
         <v>24</v>
       </c>
-      <c r="M64" s="51">
+      <c r="M64" s="33">
         <v>24</v>
       </c>
-      <c r="N64" s="51">
+      <c r="N64" s="33">
         <v>48</v>
       </c>
-      <c r="P64" s="53" t="s">
+      <c r="P64" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q64" s="51">
+      <c r="Q64" s="33">
         <v>24</v>
       </c>
-      <c r="R64" s="51">
+      <c r="R64" s="33">
         <v>24</v>
       </c>
-      <c r="S64" s="51">
+      <c r="S64" s="33">
         <v>48</v>
       </c>
-      <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
       <c r="AJ64" s="3"/>
@@ -23244,10 +23378,10 @@
       <c r="BA64" s="3"/>
       <c r="BB64" s="3"/>
       <c r="BC64" s="3"/>
+      <c r="BD64" s="3"/>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.3">
       <c r="Z65" s="3"/>
-      <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
       <c r="AJ65" s="3"/>
@@ -23270,22 +23404,22 @@
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
       <c r="BC65" s="3"/>
+      <c r="BD65" s="3"/>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="53" t="s">
+      <c r="F66" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="K66" s="53" t="s">
+      <c r="K66" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="P66" s="53" t="s">
+      <c r="P66" s="35" t="s">
         <v>97</v>
       </c>
       <c r="Z66" s="3"/>
-      <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
       <c r="AJ66" s="3"/>
@@ -23308,33 +23442,33 @@
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
       <c r="BC66" s="3"/>
+      <c r="BD66" s="3"/>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A67" s="52" t="s">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A67" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="52" t="s">
+      <c r="F67" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="52" t="s">
+      <c r="K67" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="L67" s="52" t="s">
+      <c r="L67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="P67" s="52" t="s">
+      <c r="P67" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="Q67" s="52" t="s">
+      <c r="Q67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
       <c r="AJ67" s="3"/>
@@ -23357,9 +23491,10 @@
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
       <c r="BC67" s="3"/>
+      <c r="BD67" s="3"/>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A68" s="52" t="s">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A68" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B68" t="s">
@@ -23371,7 +23506,7 @@
       <c r="D68" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="52" t="s">
+      <c r="F68" s="34" t="s">
         <v>28</v>
       </c>
       <c r="G68" t="s">
@@ -23383,7 +23518,7 @@
       <c r="I68" t="s">
         <v>29</v>
       </c>
-      <c r="K68" s="52" t="s">
+      <c r="K68" s="34" t="s">
         <v>28</v>
       </c>
       <c r="L68" t="s">
@@ -23395,7 +23530,7 @@
       <c r="N68" t="s">
         <v>29</v>
       </c>
-      <c r="P68" s="52" t="s">
+      <c r="P68" s="34" t="s">
         <v>28</v>
       </c>
       <c r="Q68" t="s">
@@ -23407,7 +23542,6 @@
       <c r="S68" t="s">
         <v>29</v>
       </c>
-      <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
       <c r="AJ68" s="3"/>
@@ -23430,57 +23564,57 @@
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
       <c r="BC68" s="3"/>
+      <c r="BD68" s="3"/>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A69" s="53" t="s">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A69" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="33">
         <v>18</v>
       </c>
-      <c r="C69" s="51">
+      <c r="C69" s="33">
         <v>10</v>
       </c>
-      <c r="D69" s="51">
+      <c r="D69" s="33">
         <v>28</v>
       </c>
-      <c r="F69" s="53" t="s">
+      <c r="F69" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="51">
+      <c r="G69" s="33">
         <v>20</v>
       </c>
-      <c r="H69" s="51">
+      <c r="H69" s="33">
         <v>8</v>
       </c>
-      <c r="I69" s="51">
+      <c r="I69" s="33">
         <v>28</v>
       </c>
-      <c r="K69" s="53" t="s">
+      <c r="K69" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="L69" s="51">
+      <c r="L69" s="33">
         <v>18</v>
       </c>
-      <c r="M69" s="51">
+      <c r="M69" s="33">
         <v>10</v>
       </c>
-      <c r="N69" s="51">
+      <c r="N69" s="33">
         <v>28</v>
       </c>
-      <c r="P69" s="53" t="s">
+      <c r="P69" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="Q69" s="51">
+      <c r="Q69" s="33">
         <v>15</v>
       </c>
-      <c r="R69" s="51">
+      <c r="R69" s="33">
         <v>13</v>
       </c>
-      <c r="S69" s="51">
+      <c r="S69" s="33">
         <v>28</v>
       </c>
-      <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
       <c r="AJ69" s="3"/>
@@ -23503,55 +23637,55 @@
       <c r="BA69" s="3"/>
       <c r="BB69" s="3"/>
       <c r="BC69" s="3"/>
+      <c r="BD69" s="3"/>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A70" s="53" t="s">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A70" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="33">
         <v>5</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="33">
         <v>2</v>
       </c>
-      <c r="D70" s="51">
+      <c r="D70" s="33">
         <v>7</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="51">
+      <c r="G70" s="33">
         <v>3</v>
       </c>
-      <c r="H70" s="51">
+      <c r="H70" s="33">
         <v>4</v>
       </c>
-      <c r="I70" s="51">
+      <c r="I70" s="33">
         <v>7</v>
       </c>
-      <c r="K70" s="53" t="s">
+      <c r="K70" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="L70" s="51"/>
-      <c r="M70" s="51">
+      <c r="L70" s="33"/>
+      <c r="M70" s="33">
         <v>8</v>
       </c>
-      <c r="N70" s="51">
+      <c r="N70" s="33">
         <v>8</v>
       </c>
-      <c r="P70" s="53" t="s">
+      <c r="P70" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="Q70" s="51">
+      <c r="Q70" s="33">
         <v>4</v>
       </c>
-      <c r="R70" s="51">
+      <c r="R70" s="33">
         <v>4</v>
       </c>
-      <c r="S70" s="51">
+      <c r="S70" s="33">
         <v>8</v>
       </c>
-      <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
       <c r="AJ70" s="3"/>
@@ -23574,55 +23708,55 @@
       <c r="BA70" s="3"/>
       <c r="BB70" s="3"/>
       <c r="BC70" s="3"/>
+      <c r="BD70" s="3"/>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A71" s="53" t="s">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A71" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="33">
         <v>1</v>
       </c>
-      <c r="C71" s="51">
+      <c r="C71" s="33">
         <v>2</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="33">
         <v>3</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="G71" s="51">
+      <c r="G71" s="33">
         <v>1</v>
       </c>
-      <c r="H71" s="51">
+      <c r="H71" s="33">
         <v>2</v>
       </c>
-      <c r="I71" s="51">
+      <c r="I71" s="33">
         <v>3</v>
       </c>
-      <c r="K71" s="53" t="s">
+      <c r="K71" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51">
+      <c r="L71" s="33"/>
+      <c r="M71" s="33">
         <v>4</v>
       </c>
-      <c r="N71" s="51">
+      <c r="N71" s="33">
         <v>4</v>
       </c>
-      <c r="P71" s="53" t="s">
+      <c r="P71" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="Q71" s="51">
+      <c r="Q71" s="33">
         <v>2</v>
       </c>
-      <c r="R71" s="51">
+      <c r="R71" s="33">
         <v>2</v>
       </c>
-      <c r="S71" s="51">
+      <c r="S71" s="33">
         <v>4</v>
       </c>
-      <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
       <c r="AJ71" s="3"/>
@@ -23645,51 +23779,51 @@
       <c r="BA71" s="3"/>
       <c r="BB71" s="3"/>
       <c r="BC71" s="3"/>
+      <c r="BD71" s="3"/>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A72" s="53" t="s">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A72" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51">
+      <c r="B72" s="33"/>
+      <c r="C72" s="33">
         <v>3</v>
       </c>
-      <c r="D72" s="51">
+      <c r="D72" s="33">
         <v>3</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F72" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51">
+      <c r="G72" s="33"/>
+      <c r="H72" s="33">
         <v>3</v>
       </c>
-      <c r="I72" s="51">
+      <c r="I72" s="33">
         <v>3</v>
       </c>
-      <c r="K72" s="53" t="s">
+      <c r="K72" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51">
+      <c r="L72" s="33"/>
+      <c r="M72" s="33">
         <v>2</v>
       </c>
-      <c r="N72" s="51">
+      <c r="N72" s="33">
         <v>2</v>
       </c>
-      <c r="P72" s="53" t="s">
+      <c r="P72" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="Q72" s="51">
+      <c r="Q72" s="33">
         <v>1</v>
       </c>
-      <c r="R72" s="51">
+      <c r="R72" s="33">
         <v>1</v>
       </c>
-      <c r="S72" s="51">
+      <c r="S72" s="33">
         <v>2</v>
       </c>
-      <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
       <c r="AJ72" s="3"/>
@@ -23712,46 +23846,47 @@
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
       <c r="BC72" s="3"/>
+      <c r="BD72" s="3"/>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A73" s="53" t="s">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A73" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51">
+      <c r="B73" s="33"/>
+      <c r="C73" s="33">
         <v>2</v>
       </c>
-      <c r="D73" s="51">
+      <c r="D73" s="33">
         <v>2</v>
       </c>
-      <c r="F73" s="53" t="s">
+      <c r="F73" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="G73" s="51"/>
-      <c r="H73" s="51">
+      <c r="G73" s="33"/>
+      <c r="H73" s="33">
         <v>2</v>
       </c>
-      <c r="I73" s="51">
+      <c r="I73" s="33">
         <v>2</v>
       </c>
-      <c r="K73" s="53" t="s">
+      <c r="K73" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="L73" s="51">
+      <c r="L73" s="33">
         <v>1</v>
       </c>
-      <c r="M73" s="51"/>
-      <c r="N73" s="51">
+      <c r="M73" s="33"/>
+      <c r="N73" s="33">
         <v>1</v>
       </c>
-      <c r="P73" s="53" t="s">
+      <c r="P73" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="51">
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33">
         <v>1</v>
       </c>
-      <c r="S73" s="51">
+      <c r="S73" s="33">
         <v>1</v>
       </c>
       <c r="AB73" s="3"/>
@@ -23782,46 +23917,47 @@
       <c r="BA73" s="3"/>
       <c r="BB73" s="3"/>
       <c r="BC73" s="3"/>
+      <c r="BD73" s="3"/>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A74" s="53" t="s">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A74" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51">
+      <c r="B74" s="33"/>
+      <c r="C74" s="33">
         <v>2</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="33">
         <v>2</v>
       </c>
-      <c r="F74" s="53" t="s">
+      <c r="F74" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51">
+      <c r="G74" s="33"/>
+      <c r="H74" s="33">
         <v>2</v>
       </c>
-      <c r="I74" s="51">
+      <c r="I74" s="33">
         <v>2</v>
       </c>
-      <c r="K74" s="53" t="s">
+      <c r="K74" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="L74" s="51">
+      <c r="L74" s="33">
         <v>1</v>
       </c>
-      <c r="M74" s="51"/>
-      <c r="N74" s="51">
+      <c r="M74" s="33"/>
+      <c r="N74" s="33">
         <v>1</v>
       </c>
-      <c r="P74" s="53" t="s">
+      <c r="P74" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="Q74" s="51"/>
-      <c r="R74" s="51">
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33">
         <v>1</v>
       </c>
-      <c r="S74" s="51">
+      <c r="S74" s="33">
         <v>1</v>
       </c>
       <c r="AB74" s="3"/>
@@ -23852,46 +23988,47 @@
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
       <c r="BC74" s="3"/>
+      <c r="BD74" s="3"/>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A75" s="53" t="s">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51">
+      <c r="B75" s="33"/>
+      <c r="C75" s="33">
         <v>1</v>
       </c>
-      <c r="D75" s="51">
+      <c r="D75" s="33">
         <v>1</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F75" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51">
+      <c r="G75" s="33"/>
+      <c r="H75" s="33">
         <v>1</v>
       </c>
-      <c r="I75" s="51">
+      <c r="I75" s="33">
         <v>1</v>
       </c>
-      <c r="K75" s="53" t="s">
+      <c r="K75" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="L75" s="51">
+      <c r="L75" s="33">
         <v>1</v>
       </c>
-      <c r="M75" s="51"/>
-      <c r="N75" s="51">
+      <c r="M75" s="33"/>
+      <c r="N75" s="33">
         <v>1</v>
       </c>
-      <c r="P75" s="53" t="s">
+      <c r="P75" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="Q75" s="51"/>
-      <c r="R75" s="51">
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33">
         <v>1</v>
       </c>
-      <c r="S75" s="51">
+      <c r="S75" s="33">
         <v>1</v>
       </c>
       <c r="AB75" s="3"/>
@@ -23922,46 +24059,47 @@
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
       <c r="BC75" s="3"/>
+      <c r="BD75" s="3"/>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A76" s="53" t="s">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A76" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51">
+      <c r="B76" s="33"/>
+      <c r="C76" s="33">
         <v>1</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="33">
         <v>1</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F76" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51">
+      <c r="G76" s="33"/>
+      <c r="H76" s="33">
         <v>1</v>
       </c>
-      <c r="I76" s="51">
+      <c r="I76" s="33">
         <v>1</v>
       </c>
-      <c r="K76" s="53" t="s">
+      <c r="K76" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="L76" s="51">
+      <c r="L76" s="33">
         <v>1</v>
       </c>
-      <c r="M76" s="51"/>
-      <c r="N76" s="51">
+      <c r="M76" s="33"/>
+      <c r="N76" s="33">
         <v>1</v>
       </c>
-      <c r="P76" s="53" t="s">
+      <c r="P76" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="Q76" s="51"/>
-      <c r="R76" s="51">
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33">
         <v>1</v>
       </c>
-      <c r="S76" s="51">
+      <c r="S76" s="33">
         <v>1</v>
       </c>
       <c r="AB76" s="3"/>
@@ -23992,155 +24130,156 @@
       <c r="BA76" s="3"/>
       <c r="BB76" s="3"/>
       <c r="BC76" s="3"/>
+      <c r="BD76" s="3"/>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A77" s="53" t="s">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A77" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51">
+      <c r="B77" s="33"/>
+      <c r="C77" s="33">
         <v>1</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="33">
         <v>1</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="F77" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51">
+      <c r="G77" s="33"/>
+      <c r="H77" s="33">
         <v>1</v>
       </c>
-      <c r="I77" s="51">
+      <c r="I77" s="33">
         <v>1</v>
       </c>
-      <c r="K77" s="53" t="s">
+      <c r="K77" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="L77" s="51">
+      <c r="L77" s="33">
         <v>2</v>
       </c>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51">
+      <c r="M77" s="33"/>
+      <c r="N77" s="33">
         <v>2</v>
       </c>
-      <c r="P77" s="53" t="s">
+      <c r="P77" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="Q77" s="51">
+      <c r="Q77" s="33">
         <v>2</v>
       </c>
-      <c r="R77" s="51"/>
-      <c r="S77" s="51">
+      <c r="R77" s="33"/>
+      <c r="S77" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="A78" s="53" t="s">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="33">
         <v>24</v>
       </c>
-      <c r="C78" s="51">
+      <c r="C78" s="33">
         <v>24</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="33">
         <v>48</v>
       </c>
-      <c r="F78" s="53" t="s">
+      <c r="F78" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G78" s="51">
+      <c r="G78" s="33">
         <v>24</v>
       </c>
-      <c r="H78" s="51">
+      <c r="H78" s="33">
         <v>24</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="33">
         <v>48</v>
       </c>
-      <c r="K78" s="53" t="s">
+      <c r="K78" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L78" s="51">
+      <c r="L78" s="33">
         <v>24</v>
       </c>
-      <c r="M78" s="51">
+      <c r="M78" s="33">
         <v>24</v>
       </c>
-      <c r="N78" s="51">
+      <c r="N78" s="33">
         <v>48</v>
       </c>
-      <c r="P78" s="53" t="s">
+      <c r="P78" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q78" s="51">
+      <c r="Q78" s="33">
         <v>24</v>
       </c>
-      <c r="R78" s="51">
+      <c r="R78" s="33">
         <v>24</v>
       </c>
-      <c r="S78" s="51">
+      <c r="S78" s="33">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="AR2:AZ2"/>
+    <mergeCell ref="AH2:AP2"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AH16:AP16"/>
+    <mergeCell ref="AR16:AZ16"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AR17:AR18"/>
+    <mergeCell ref="AS17:AV17"/>
+    <mergeCell ref="AW17:AZ17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:AP18"/>
+    <mergeCell ref="AS18:AT18"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AW18:AX18"/>
+    <mergeCell ref="AY18:AZ18"/>
+    <mergeCell ref="AU13:AV13"/>
+    <mergeCell ref="AW13:AX13"/>
+    <mergeCell ref="AY13:AZ13"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AO27:AP27"/>
+    <mergeCell ref="AS27:AT27"/>
+    <mergeCell ref="AU27:AV27"/>
+    <mergeCell ref="AW27:AX27"/>
+    <mergeCell ref="AY27:AZ27"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AP13"/>
+    <mergeCell ref="AS13:AT13"/>
     <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="U1:X1"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:AY13"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AL27:AM27"/>
-    <mergeCell ref="AN27:AO27"/>
-    <mergeCell ref="AR27:AS27"/>
-    <mergeCell ref="AT27:AU27"/>
-    <mergeCell ref="AV27:AW27"/>
-    <mergeCell ref="AX27:AY27"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AL13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AG16:AO16"/>
-    <mergeCell ref="AQ16:AY16"/>
-    <mergeCell ref="AG17:AG18"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="AQ17:AQ18"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AL18:AM18"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AT18:AU18"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:AY18"/>
-    <mergeCell ref="AQ2:AY2"/>
-    <mergeCell ref="AG2:AO2"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24152,7 +24291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BE1D87-0709-4FB8-B8D4-EBB55DB60F16}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
